--- a/数据整理/stocks/A股/科创板/688311-盟升电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688311-盟升电子.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,6 +49,12 @@
     <t>金元顺安成长动力混合</t>
   </si>
   <si>
+    <t>14.58</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
     <t>94.45</t>
   </si>
   <si>
@@ -53,6 +65,12 @@
   </si>
   <si>
     <t>3.39</t>
+  </si>
+  <si>
+    <t>0.9594</t>
+  </si>
+  <si>
+    <t>0.0325</t>
   </si>
 </sst>
 </file>
@@ -410,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,44 +450,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688311-盟升电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688311-盟升电子.xlsx
@@ -1,108 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>290011</t>
-  </si>
-  <si>
-    <t>620002</t>
-  </si>
-  <si>
-    <t>泰信中小盘精选混合</t>
-  </si>
-  <si>
-    <t>金元顺安成长动力混合</t>
-  </si>
-  <si>
-    <t>14.58</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>94.45</t>
-  </si>
-  <si>
-    <t>79.63</t>
-  </si>
-  <si>
-    <t>6.58</t>
-  </si>
-  <si>
-    <t>3.39</t>
-  </si>
-  <si>
-    <t>0.9594</t>
-  </si>
-  <si>
-    <t>0.0325</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,89 +446,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9594</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688311-盟升电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688311-盟升电子.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688311-盟升电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688311-盟升电子.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -716,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,17 +728,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -747,14 +768,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -763,13 +806,157 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.99</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688311-盟升电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688311-盟升电子.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -887,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,17 +899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -918,14 +939,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>012124</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -934,14 +977,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -950,13 +1015,249 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>257050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安主题驱动混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012125</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道盛彦混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.99</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688311-盟升电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688311-盟升电子.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.27</v>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4588</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3242</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1300,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.05</v>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1338,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.99</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688311-盟升电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688311-盟升电子.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D2" t="n">
-        <v>1.08</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.27</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.99</v>
       </c>
     </row>
@@ -566,6 +583,1994 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1477</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1441</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012130</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5821</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011643</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5673</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5123</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010052</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2821</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2677</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2410</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银景福回报混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商核心引力混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>62.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010797</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012131</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007318</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银民丰回报混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>45.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011644</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实时代先锋三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010931</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国联安鑫元1个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>64.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>61.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华商核心引力混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014049</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>66.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010798</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>28.94</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>66.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>016069</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015756</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010932</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国联安鑫元1个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>61.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014050</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015089</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银景福回报混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>016051</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>016520</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>64.79</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1001,7 +3006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1285,7 +3290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1455,7 +3460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1587,7 +3592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688311-盟升电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688311-盟升电子.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>6.29</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>1.08</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.27</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.99</v>
       </c>
     </row>
@@ -583,6 +600,1772 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2361</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9548</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7935</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4477</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4027</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2950</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2388</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2214</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商核心引力混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001760</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>016069</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>62.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010797</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>016305</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商核心引力混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>69.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009719</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010798</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>016306</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>农银专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009718</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商增浩一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014381</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>73.25</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>016051</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>73.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2570,7 +4353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3006,7 +4789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3290,7 +5073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3460,7 +5243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3592,7 +5375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
